--- a/DOM_Banner/output/dept0713/Marvin J Slepian_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Marvin J Slepian_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Florida, Gainesville, FL.; Division of Cardiovascular Surgery, Departments of Surgery and Pediatrics, University of Florida, Gainesville, Florida; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Departments of Surgery and Pediatrics, Children’s Hospital of Georgia, Augusta University, Augusta, Georgia; Department of Cardiovascular and Thoracic Surgery, West Virginia University, Morgantown, West Virginia; St. Elizabeth Medical Center, Appleton, Wisconsin; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; University of Houston, Houston, Texas; HCA Healthcare Research Institute, Nashville, Tennessee; University of Houston, Houston, Texas; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; University of Arizona, Tucson, Arizona; Department of Cardiovascular and Thoracic Surgery, West Virginia University, Morgantown, West Virginia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4213147898</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Multi-institutional Analysis of 505 Patients With Coronavirus Disease-2019 Supported With Extracorporeal Membrane Oxygenation: Predictors of Survival</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The Annals of Thoracic Surgery</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2022.01.043</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35189111</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2022.01.043</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Congenital Heart Center, Division of Cardiovascular Surgery, Departments of Surgery and Pediatrics, University of Florida, Gainesville, Florida; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Children's Hospital of Georgia, Augusta, Georgia; Department of Cardiovascular and Thoracic Surgery, West Virginia University, Morgantown, West Virginia; Medical Center of Aurora, Aurora, Colorado; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; University of Houston, Houston, Texas; HCA Research Institute, Nashville, Tennessee; University of Houston, Houston, Texas; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; Medical Department, SpecialtyCare, Inc, Nashville, Tennessee; University of Arizona, Tucson, Arizona; Department of Cardiovascular and Thoracic Surgery, West Virginia University, Morgantown, West Virginia</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3181597784</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Multi-institutional Analysis of 200 COVID-19 Patients Treated With Extracorporeal Membrane Oxygenation: Outcomes and Trends</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>The Annals of Thoracic Surgery</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2021.06.026</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34242641</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.athoracsur.2021.06.026</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, Stony Brook University , T8-050 Health Sciences Center, Stony Brook, NY 11794-8084; Department of Biomedical Engineering, Stony Brook University , T8-050 Health Sciences Center, Stony Brook, NY 11794-8084; Department of Biomedical Engineering, Stony Brook University , T8-050 Health Sciences Center, Stony Brook, NY 11794-8084; Department of Biomedical Engineering, Stony Brook University , T8-050 Health Sciences Center, Stony Brook, NY 11794-8084; Department of Medicine and Biomedical Engineering Sarver Heart Center, University of Arizona , Tucson, AZ 85721; Department of Biomedical Engineering, Stony Brook University , T8-050 Health Sciences Center, Stony Brook, NY 11794-8084</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220914157</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Visions of TAVR Future: Development and Optimization of a Second Generation Novel Polymeric TAVR</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-04-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of biomechanical engineering</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>ASM International</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1115/1.4054149</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35318480</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1115/1.4054149</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Medicine, Sarver Heart Center University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Sarver Heart Center University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Sarver Heart Center University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, Sarver Heart Center University of Arizona, Tucson, AZ 85724, USA; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ 85724, USA; Department of Health &amp; Rehabilitation Sciences, University of Nebraska Medical Center, Omaha, NE 68198, USA; Department of Health &amp; Rehabilitation Sciences, University of Nebraska Medical Center, Omaha, NE 68198, USA; Department of Medicine, Sarver Heart Center University of Arizona, Tucson, AZ 85724, USA; Sarver Heart Center, Departments of Medicine and Biomedical Engineering, 1501 North Campbell Avenue, Bldg. 201E, Rm 5146, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283027586</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Smart Phone-Based Motion Capture and Analysis: Importance of Operating Envelope Definition and Application to Clinical Use</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Applied sciences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/app12126173</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/app12126173</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine, Sarver Heart Center, University of Arizona Health Sciences Center,University of Arizona, Tucson, Arizona 85721, United States; Department of Mechanical Engineering, Carnegie Mellon University, Pittsburgh, Pennsylvania 15213, United States; Department of Mechanical Engineering, Carnegie Mellon University, Pittsburgh, Pennsylvania 15213, United States; Department of Surgery, Boston Children’s Hospital, Harvard Medical School, Boston, Massachusetts 02115, United States; Department of Medicine, Sarver Heart Center, University of Arizona Health Sciences Center,University of Arizona, Tucson, Arizona 85721, United States; Department of Mechanical Engineering, Carnegie Mellon University, Pittsburgh, Pennsylvania 15213, United States</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283275940</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>DNA Origami–Platelet Adducts: Nanoconstruct Binding without Platelet Activation</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Bioconjugate Chemistry</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>American Chemical Society</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.bioconjchem.2c00197</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35731951</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acs.bioconjchem.2c00197</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, USA; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, USA; Department of Biomedical Engineering, University of Arizona, Tucson, Arizona, USA; Department of Cardiology, Rabin Medical Center, Petah Tikva, Israel; The Fleischman Faculty of Engineering School of Mechanical Engineering Tel Aviv University Tel Aviv Ramat Aviv Israel; Department of Biomedical Engineering, Stony Brook University, Stony Brook, New York, USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210681900</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A computational framework for post‐TAVR cardiac conduction abnormality (CCA) risk assessment in patient‐specific anatomy</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-02-07</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Artificial Organs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/aor.14189</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35083748</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/aor.14189</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Stony Brook University; Biofluids Research Group, Department of Biomedical Engineering, T8-050 Health Sciences Center, Stony Brook University, Stony Brook, USA; Biofluids Research Group, Department of Biomedical Engineering, T8-050 Health Sciences Center, Stony Brook University, Stony Brook, USA; Department of Medicine and Biomedical Engineering Sarver Heart Center, University of Arizona, Tucson, USA; Department of Cardiology, Rabin Medical Center, Petah Tikva, Israel; School of Mechanical Engineering, Faculty of Engineering, Tel Aviv University, Tel Aviv, Israel; Biofluids Research Group, Department of Biomedical Engineering, T8-050 Health Sciences Center, Stony Brook University, Stony Brook, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293706624</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Designing a Novel Asymmetric Transcatheter Aortic Valve for Stenotic Bicuspid Aortic Valves Using Patient-Specific Computational Modeling</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Annals of Biomedical Engineering</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10439-022-03039-3</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36042099</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10439-022-03039-3</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Medicine and Biomedical Engineering, University of Arizona, Tuscon, AZ, United States; Biomedical Engineering, Stony Brook University, Stony Brook, NY, United States; Biomedical Engineering, Stony Brook University, Stony Brook, NY, United States; Biomedical Engineering, Stony Brook University, Stony Brook, NY, United States; Biomedical Engineering, Stony Brook University, Stony Brook, NY, United States; Biomedical Engineering, Stony Brook University, Stony Brook, NY, United States</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283012780</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>CARD20: A Novel Polymeric Transcatheter Aortic Valve As Alternative To Tissue-Based Valves</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841016.33951.a8</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841016.33951.a8</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283033357</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Platelet Function at the Intersection of the COVID-19 “Cytokine Storm” and Mechanical Circulatory Support</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840720.81099.9f</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840720.81099.9f</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, Stony Brook University , Stony Brook, NY 11794; Departments of Biological Engineering and Mechanical Engineering, Massachusetts Institute of Technology , Cambridge, MA 02139; Department of Biomedical Engineering, Faculty of Engineering, Tel Aviv University , Tel Aviv, 69978, Israel; Aeronautics and Bioinspired Engineering, Division of Engineering and Applied Science, California Institute of Technology , Pasadena, CA 91125; Departments of Biological Engineering and Mechanical Engineering, Massachusetts Institute of Technology , Cambridge, MA 02139; Department of Radiology, Tufts University School of Medicine , Medford, MA 02155; Wallace H. Coulter Department of Biomedical Engineering, Georgia Institute of Technology/Emory University , Atlanta, GA 30332; Department of Medicine and Biomedical Engineering, Sarver Heart Center, University of Arizona , Tucson, AZ 85721; Biomedical Engineering Department, The City College of New York , New York, NY 10031; Biomedical Engineering Department, The City College of New York , New York, NY 10031</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282822986</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>In Memoriam: Shmuel Einav, 1942–2022</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Journal of biomechanical engineering</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ASM International</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1115/1.4054797</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35698871</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1115/1.4054797</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283010051</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>P27: Remote Teletracking and Analysis of Joint Range of Motion</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,75 +1409,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283011758</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>P24: Impact of FiO2 on blood oxygenation in Pediatric MLung</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283013411</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>P83: Subtle Sounds: Component Sound Capture, Extraction and Analysis from Patient Encounters for Enhanced Diagnostics</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1513,75 +1583,80 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Stony Brook, Stony Brook, NY, United States; Stony Brook, Stony Brook, NY, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283014196</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>P14: Vibration-Mediated Endothelial Cell-Platelet Interaction: A Thrombotic Risk Factor in Obstructive Sleep Apnea and Beyond</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,75 +1670,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283014366</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>P78: Detection of Platelet-Derived Microparticles via Dynamic Light Scattering</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,75 +1757,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283015724</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>P97: K-DxTM A Point of Care Potassium Diagnostic System for Advanced Renal Disease Patients</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,75 +1844,80 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283016937</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>P28: Digitizing the Range of Motion in Strength-Training Exercises via Stretchable Electronic Wearable Sensors</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,75 +1931,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283017245</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>P6: Sodium Bicarbonate Alters Blood Coagulability and Enhances Heparin Effect in a Simulated Impella Purge Gap Model</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,75 +2018,80 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283020710</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>CARD5: MCS Shear Stress Promotes Redistribution of Adhesion Receptors from Platelets to Microparticles</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2005,75 +2105,80 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t xml:space="preserve">Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Biosystems Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; ; </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283025437</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>BIO21: CytoMech: A Microfluidic System for Determination of Platelet Stiffness</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2087,75 +2192,80 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Department of Biomedical Engineer, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283027888</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>P11: Endoscopic Procurement of Saphenous Vein: a Hydraulic Conductivity and Microscopic Assessment</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2169,75 +2279,80 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283031665</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>CARD3: Human Platelet Function at the Blood-Mechanical Circulatory Support Interface: An In Vitro Investigation of Sodium Bicarbonate Purge Solution</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,75 +2366,80 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283031998</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>P30: “Digital Dance”: Digital Signatures of the Demi Plié via Stretchable Electronic Wearable Sensors for Dance Therapy</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2333,75 +2453,80 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283032363</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>P10: Validation of the MICELI Impedance Aggregometer with ADP Lyospheres: Streamlined Protocol &amp;amp; Reliable Performance</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2415,75 +2540,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Chemical Engineering, University of Arizona, Tucson, AZ, United States; College of Medicine, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283033082</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>P4: REDIEM: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2497,75 +2627,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Boston Children’s Hospital, Harvard Medical School, Boston, MA, United States; University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283034672</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>CARD8: Shear-Mediated Platelet Desialylation Promotes Reduction in Platelet Count and Increased Microvesiculation</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>ASAIO Journal</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2579,39 +2714,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>1University of Arizona Health Sciences Center, University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 3Vascular Biology Program, Boston Children's Hospital, Harvard Medical School, Boston, MA; 2University of Arizona, Tucson, AZ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310107670</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Shear Stress Promotes Platelet Surface Desialylation, Platelet Count Drop, and Microvesiculation: Do Platelets Need to be Sugar-Coated?</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159140</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2619,35 +2754,40 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/blood-2022-159140</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,75 +2801,80 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390725938</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Pulsatility is a Predictive Marker of Improved Cardiac Function in Patients with Liquid Matrix-treated Left Ventricular Assist Devices</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>The VAD journal</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Linda and Jack Gill Heart Institute</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://doi.org/10.11589/vad/e2022815</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://doi.org/10.11589/vad/e2022815</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2741,77 +2886,77 @@
           <t>Marvin J. Slepian</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://openalex.org/W4390827048</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>COVID-19 Induced Right Ventricular Failure and Right Ventricular Assist Device Support</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Journal of Shock and Hemodynamics</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>https://doi.org/10.57905/josh/e20231214</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://doi.org/10.57905/josh/e20231214</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Marvin J Slepian_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Marvin J Slepian_2022.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1317,22 +1317,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hailey L. Swanson, Karli G. Ramsey, Ary Nath, Rebecca C. Slepian, Ka-Chun Siu, Marvin J. Slepian</t>
+          <t>Rebecca C. Slepian, Ashley Chey Vincent, Haley Furman, Carson Di Maria, Hailey L. Swanson, Ka-Chun Siu, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283010051</t>
+          <t>https://openalex.org/W4283011758</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P27: Remote Teletracking and Analysis of Joint Range of Motion</t>
+          <t>P24: Impact of FiO2 on blood oxygenation in Pediatric MLung</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
+          <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
+          <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,22 +1404,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rebecca C. Slepian, Ashley Chey Vincent, Haley Furman, Carson Di Maria, Hailey L. Swanson, Ka-Chun Siu, Marvin J. Slepian</t>
+          <t>Jordan Elliott, Jesus Landin, Will Mohammed, Tamillia Thomas, Jacob Summerville, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
+          <t>Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283011758</t>
+          <t>https://openalex.org/W4283013411</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P24: Impact of FiO2 on blood oxygenation in Pediatric MLung</t>
+          <t>P83: Subtle Sounds: Component Sound Capture, Extraction and Analysis from Patient Encounters for Enhanced Diagnostics</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
+          <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841312.36302.f6</t>
+          <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,22 +1491,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jordan Elliott, Jesus Landin, Will Mohammed, Tamillia Thomas, Jacob Summerville, Marvin J. Slepian</t>
+          <t>Alyssa M. Barney, Rainee L. Meuschke, Megan F. Mickey, Giang B. Nguyen, Ethan C. Ross, Cody R. Wilcox, Izzy Beeley, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283013411</t>
+          <t>https://openalex.org/W4283014366</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P83: Subtle Sounds: Component Sound Capture, Extraction and Analysis from Patient Encounters for Enhanced Diagnostics</t>
+          <t>P78: Detection of Platelet-Derived Microparticles via Dynamic Light Scattering</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
+          <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841548.36209.41</t>
+          <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,22 +1578,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel E. Palomares, Phat L. Tran, Jessica R. Crosby, Jawaad Sheriff, Danny Bluestein, Marvin J. Slepian</t>
+          <t>Sage I. Nye, Brayden R. Kaiser, M. Patrick Procter, Jacqueline D. Purwins, Halle R. Moore, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Stony Brook, Stony Brook, NY, United States; Stony Brook, Stony Brook, NY, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283014196</t>
+          <t>https://openalex.org/W4283016937</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P14: Vibration-Mediated Endothelial Cell-Platelet Interaction: A Thrombotic Risk Factor in Obstructive Sleep Apnea and Beyond</t>
+          <t>P28: Digitizing the Range of Motion in Strength-Training Exercises via Stretchable Electronic Wearable Sensors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
+          <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
+          <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,22 +1665,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alyssa M. Barney, Rainee L. Meuschke, Megan F. Mickey, Giang B. Nguyen, Ethan C. Ross, Cody R. Wilcox, Izzy Beeley, Marvin J. Slepian</t>
+          <t>Scott C. Corbett, Soumen Das, Vladimir Gilman, Izzy Beeley, Kaitlyn R. Ammann, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Department of Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, University of Arizona, Tucson, AZ, United States</t>
+          <t>R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283014366</t>
+          <t>https://openalex.org/W4283017245</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P78: Detection of Platelet-Derived Microparticles via Dynamic Light Scattering</t>
+          <t>P6: Sodium Bicarbonate Alters Blood Coagulability and Enhances Heparin Effect in a Simulated Impella Purge Gap Model</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
+          <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841528.69877.66</t>
+          <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vanessa Silbar, Reid S. Loeffler, Teresa Pham, Julia McElwee, Prabhkirat Bindra, Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283015724</t>
+          <t>https://openalex.org/W4283020710</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P97: K-DxTM A Point of Care Potassium Diagnostic System for Advanced Renal Disease Patients</t>
+          <t>CARD5: MCS Shear Stress Promotes Redistribution of Adhesion Receptors from Platelets to Microparticles</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
+          <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
+          <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,22 +1839,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sage I. Nye, Brayden R. Kaiser, M. Patrick Procter, Jacqueline D. Purwins, Halle R. Moore, Marvin J. Slepian</t>
+          <t>Kaitlyn R. Ammann, Isabel M. Beeley, Christine Outridge, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283016937</t>
+          <t>https://openalex.org/W4283031665</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P28: Digitizing the Range of Motion in Strength-Training Exercises via Stretchable Electronic Wearable Sensors</t>
+          <t>CARD3: Human Platelet Function at the Blood-Mechanical Circulatory Support Interface: An In Vitro Investigation of Sodium Bicarbonate Purge Solution</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
+          <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841328.50153.77</t>
+          <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Scott C. Corbett, Soumen Das, Vladimir Gilman, Izzy Beeley, Kaitlyn R. Ammann, Marvin J. Slepian</t>
+          <t>Karli G. Ramsey, Hailey L. Swanson, William McKay, Ary Nath, Kaitlyn R. Ammann, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; R&amp;D, ABIOMED, Inc., Danvers, MA, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283017245</t>
+          <t>https://openalex.org/W4283031998</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P6: Sodium Bicarbonate Alters Blood Coagulability and Enhances Heparin Effect in a Simulated Impella Purge Gap Model</t>
+          <t>P30: “Digital Dance”: Digital Signatures of the Demi Plié via Stretchable Electronic Wearable Sensors for Dance Therapy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
+          <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841240.78173.e6</t>
+          <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,22 +2013,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Samuel Miller-Gutierrez, Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Wayne Scatena, Lukas Janson, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283020710</t>
+          <t>https://openalex.org/W4283032363</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CARD5: MCS Shear Stress Promotes Redistribution of Adhesion Receptors from Platelets to Microparticles</t>
+          <t>P10: Validation of the MICELI Impedance Aggregometer with ADP Lyospheres: Streamlined Protocol &amp;amp; Reliable Performance</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
+          <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840960.87755.43</t>
+          <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jacob Baker, A’Niah L. Bell, Taliah Gorman, Celyn Jacobs, M. A. Osipov, Daniel E. Palomares, Marvin J. Slepian</t>
+          <t>Spencer A. Ciammitti, Mike G. Reynolds, Jocelyn Reynolds, Diana K. Meyer, Emmanuel Enriquez, Julia Starkey, Brandon C. Bounds, Izzy Beeley, Bijin Thajudeen, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Biosystems Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; ; </t>
+          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Chemical Engineering, University of Arizona, Tucson, AZ, United States; College of Medicine, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283025437</t>
+          <t>https://openalex.org/W4283033082</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BIO21: CytoMech: A Microfluidic System for Determination of Platelet Stiffness</t>
+          <t>P4: REDIEM: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
+          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
+          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,42 +2187,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Phat L. Tran, Jennifer P. Ngo, Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Estevan Cleveland, Sabrina E. Lewis, Joseph E. Italiano, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Department of Biomedical Engineer, University of Arizona, Tucson, AZ, United States</t>
+          <t>1University of Arizona Health Sciences Center, University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 3Vascular Biology Program, Boston Children's Hospital, Harvard Medical School, Boston, MA; 2University of Arizona, Tucson, AZ</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283027888</t>
+          <t>https://openalex.org/W4310107670</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>P11: Endoscopic Procurement of Saphenous Vein: a Hydraulic Conductivity and Microscopic Assessment</t>
+          <t>Shear Stress Promotes Platelet Surface Desialylation, Platelet Count Drop, and Microvesiculation: Do Platelets Need to be Sugar-Coated?</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
+          <t>https://doi.org/10.1182/blood-2022-159140</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
+          <t>https://doi.org/10.1182/blood-2022-159140</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,47 +2274,47 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kaitlyn R. Ammann, Isabel M. Beeley, Christine Outridge, Marvin J. Slepian</t>
+          <t>Philemon Mikail, Rinku Skaria, Marvin J. Slepian, Javier O. Garcia, Richard G. Smith, Zain Khalpey</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283031665</t>
+          <t>https://openalex.org/W4390725938</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CARD3: Human Platelet Function at the Blood-Mechanical Circulatory Support Interface: An In Vitro Investigation of Sodium Bicarbonate Purge Solution</t>
+          <t>Pulsatility is a Predictive Marker of Improved Cardiac Function in Patients with Liquid Matrix-treated Left Ventricular Assist Devices</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>The VAD journal</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Linda and Jack Gill Heart Institute</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
+          <t>https://doi.org/10.11589/vad/e2022815</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by-nc</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840952.69219.98</t>
+          <t>https://doi.org/10.11589/vad/e2022815</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2361,42 +2361,37 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Karli G. Ramsey, Hailey L. Swanson, William McKay, Ary Nath, Kaitlyn R. Ammann, Marvin J. Slepian</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>Marvin J. Slepian</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283031998</t>
+          <t>https://openalex.org/W4390827048</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P30: “Digital Dance”: Digital Signatures of the Demi Plié via Stretchable Electronic Wearable Sensors for Dance Therapy</t>
+          <t>COVID-19 Induced Right Ventricular Failure and Right Ventricular Assist Device Support</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ASAIO Journal</t>
+          <t>Journal of Shock and Hemodynamics</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
+          <t>https://doi.org/10.57905/josh/e20231214</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2431,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841336.15577.cf</t>
+          <t>https://doi.org/10.57905/josh/e20231214</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2448,22 +2443,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Kaitlyn R. Ammann, Wayne Scatena, Lukas Janson, Marvin J. Slepian</t>
+          <t>Hailey L. Swanson, Karli G. Ramsey, Ary Nath, Rebecca C. Slepian, Ka-Chun Siu, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Department of Biomedical Engineering, College of Engineering, University of Arizona, Tucson, AZ, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States; Division of Physical Therapy Education, University of Nebraska Medical Center, Omaha, NE, United States; Department of Medicine, Sarver Heart Center, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283032363</t>
+          <t>https://openalex.org/W4283010051</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P10: Validation of the MICELI Impedance Aggregometer with ADP Lyospheres: Streamlined Protocol &amp;amp; Reliable Performance</t>
+          <t>P27: Remote Teletracking and Analysis of Joint Range of Motion</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2483,7 +2478,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
+          <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2518,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841256.79535.7a</t>
+          <t>https://doi.org/10.1097/01.mat.0000841324.01524.e2</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2535,22 +2530,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spencer A. Ciammitti, Mike G. Reynolds, Jocelyn Reynolds, Diana K. Meyer, Emmanuel Enriquez, Julia Starkey, Brandon C. Bounds, Izzy Beeley, Bijin Thajudeen, Marvin J. Slepian</t>
+          <t>Daniel E. Palomares, Phat L. Tran, Jessica R. Crosby, Jawaad Sheriff, Danny Bluestein, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Mechanical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States; Chemical Engineering, University of Arizona, Tucson, AZ, United States; College of Medicine, University of Arizona, Tucson, AZ, United States; Arizona Center for Accelerated Biomedical Innovation, University of Arizona, Tucson, AZ, United States</t>
+          <t>Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Biomedical Engineering, The University of Arizona, Tucson, AZ, United States; Stony Brook, Stony Brook, NY, United States; Stony Brook, Stony Brook, NY, United States; Department of Medicine, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283033082</t>
+          <t>https://openalex.org/W4283014196</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P4: REDIEM: Renal Extremity Device to Measure Impedance, Edema, Movement</t>
+          <t>P14: Vibration-Mediated Endothelial Cell-Platelet Interaction: A Thrombotic Risk Factor in Obstructive Sleep Apnea and Beyond</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2570,7 +2565,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
+          <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2610,7 +2605,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000841232.01130.51</t>
+          <t>https://doi.org/10.1097/01.mat.0000841272.61309.2a</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2622,22 +2617,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Samuel Miller-Gutierrez, Joseph E. Italiano, Marvin J. Slepian</t>
+          <t>Vanessa Silbar, Reid S. Loeffler, Teresa Pham, Julia McElwee, Prabhkirat Bindra, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Boston Children’s Hospital, Harvard Medical School, Boston, MA, United States; University of Arizona, Tucson, AZ, United States</t>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283034672</t>
+          <t>https://openalex.org/W4283015724</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CARD8: Shear-Mediated Platelet Desialylation Promotes Reduction in Platelet Count and Increased Microvesiculation</t>
+          <t>P97: K-DxTM A Point of Care Potassium Diagnostic System for Advanced Renal Disease Patients</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2657,7 +2652,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
+          <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2697,7 +2692,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
+          <t>https://doi.org/10.1097/01.mat.0000841604.99277.89</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2709,42 +2704,42 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Yana Roka‐Moiia, Estevan Cleveland, Sabrina E. Lewis, Joseph E. Italiano, Marvin J. Slepian</t>
+          <t>Jacob Baker, A’Niah L. Bell, Taliah Gorman, Celyn Jacobs, M. A. Osipov, Daniel E. Palomares, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1University of Arizona Health Sciences Center, University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 2University of Arizona, Tucson, AZ; 3Vascular Biology Program, Boston Children's Hospital, Harvard Medical School, Boston, MA; 2University of Arizona, Tucson, AZ</t>
+          <t xml:space="preserve">Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Biosystems Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; Electrical and Computer Engineering, University of Arizona, Tucson, AZ, United States; Biomedical Engineering, University of Arizona, Tucson, AZ, United States; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310107670</t>
+          <t>https://openalex.org/W4283025437</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Shear Stress Promotes Platelet Surface Desialylation, Platelet Count Drop, and Microvesiculation: Do Platelets Need to be Sugar-Coated?</t>
+          <t>BIO21: CytoMech: A Microfluidic System for Determination of Platelet Stiffness</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2022-159140</t>
+          <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2754,12 +2749,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2784,7 +2779,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2022-159140</t>
+          <t>https://doi.org/10.1097/01.mat.0000840820.07487.1d</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2796,47 +2791,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Philemon Mikail, Rinku Skaria, Marvin J. Slepian, Javier O. Garcia, Richard G. Smith, Zain Khalpey</t>
+          <t>Phat L. Tran, Jennifer P. Ngo, Marvin J. Slepian</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Artificial Heart Program, Banner University Medical Center-Tucson, Tucson, AZ, United States; Department of Biomedical Engineer, University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390725938</t>
+          <t>https://openalex.org/W4283027888</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pulsatility is a Predictive Marker of Improved Cardiac Function in Patients with Liquid Matrix-treated Left Ventricular Assist Devices</t>
+          <t>P11: Endoscopic Procurement of Saphenous Vein: a Hydraulic Conductivity and Microscopic Assessment</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>The VAD journal</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Linda and Jack Gill Heart Institute</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11589/vad/e2022815</t>
+          <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>cc-by-nc</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2846,7 +2841,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2871,7 +2866,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11589/vad/e2022815</t>
+          <t>https://doi.org/10.1097/01.mat.0000841260.22786.e1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2883,37 +2878,42 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Marvin J. Slepian</t>
+          <t>Yana Roka‐Moiia, Samuel Miller-Gutierrez, Joseph E. Italiano, Marvin J. Slepian</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>University of Arizona, Tucson, AZ, United States; University of Arizona, Tucson, AZ, United States; Boston Children’s Hospital, Harvard Medical School, Boston, MA, United States; University of Arizona, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390827048</t>
+          <t>https://openalex.org/W4283034672</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COVID-19 Induced Right Ventricular Failure and Right Ventricular Assist Device Support</t>
+          <t>CARD8: Shear-Mediated Platelet Desialylation Promotes Reduction in Platelet Count and Increased Microvesiculation</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Journal of Shock and Hemodynamics</t>
+          <t>ASAIO Journal</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.57905/josh/e20231214</t>
+          <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.57905/josh/e20231214</t>
+          <t>https://doi.org/10.1097/01.mat.0000840972.68464.ba</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
